--- a/admin/Format/format_data_pengajar.xlsx
+++ b/admin/Format/format_data_pengajar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ujianonline\admin\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD11EEB1-6B78-4E3E-80C2-F25E70CD4CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC94AE-9259-4821-B87B-64DCCE80D40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>* jenis kelamin Diisi L = Laki-laki * Status Aktif = aktif, Tidak aktif = tidak aktif</t>
+  </si>
+  <si>
+    <t>Tidak aktif</t>
   </si>
 </sst>
 </file>
@@ -586,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2287356D-EF94-4CCB-B6D1-14762C09DA71}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,16 +705,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="12"/>
+    <row r="3" spans="1:17" ht="45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>88888</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>31502</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2">
+        <v>87777777</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="O3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8"/>
@@ -914,6 +956,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{39067543-F4E2-4BA0-B278-CE51F2264E81}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{A0BB8B18-CC1B-48C5-8639-05F455BD2238}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
